--- a/results/resumenOnlyMet.xlsx
+++ b/results/resumenOnlyMet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="191">
   <si>
     <t>clustersResumen</t>
   </si>
@@ -317,9 +317,6 @@
     <t xml:space="preserve">En los datos antropométricos vemos que el peso, el IMC y la grasa se ven influenciados por el endulzante, la grasa por todos los factores y el IRCV por el tiempo y el sexo. </t>
   </si>
   <si>
-    <t>2-way</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -369,13 +366,247 @@
   </si>
   <si>
     <t xml:space="preserve">0.000539 </t>
+  </si>
+  <si>
+    <t>0.00000113</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>sucralosa menos para hombres?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000428 </t>
+  </si>
+  <si>
+    <t>0.000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.038</t>
+  </si>
+  <si>
+    <t>0.000000588</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023 </t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>1????</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>0.000967</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.000937</t>
+  </si>
+  <si>
+    <t>0.000201</t>
+  </si>
+  <si>
+    <t>Bpmin no-sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036 </t>
+  </si>
+  <si>
+    <t>Frec no sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El CA.Gluc en comparaciones múltiples sale casi 1 en p-valor, y aquí sale muy claramente influenciado por el tiempo </t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000772 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006 </t>
+  </si>
+  <si>
+    <t>0.000121</t>
+  </si>
+  <si>
+    <t>0.000234</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000524 </t>
+  </si>
+  <si>
+    <t>Todos los valores metabólicos no significativos</t>
+  </si>
+  <si>
+    <t>0.0000000103</t>
+  </si>
+  <si>
+    <t>5.97e-4</t>
+  </si>
+  <si>
+    <t>2.9 e-2</t>
+  </si>
+  <si>
+    <t>1.3 e-2</t>
+  </si>
+  <si>
+    <t>6   e-3</t>
+  </si>
+  <si>
+    <t>3.64e-5</t>
+  </si>
+  <si>
+    <t>7   e-3</t>
+  </si>
+  <si>
+    <t>2   e-3</t>
+  </si>
+  <si>
+    <t>8.67e-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74e-4 </t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X3.4.Ácido.Dihidroxifenilacético..DHPAA.</t>
+  </si>
+  <si>
+    <t>8.79e-5</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>1.09e-6</t>
+  </si>
+  <si>
+    <t>0.0000678</t>
+  </si>
+  <si>
+    <t>4.43e-4</t>
+  </si>
+  <si>
+    <t>5.62e-4</t>
+  </si>
+  <si>
+    <t>0.0000357</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VA.GG</t>
+  </si>
+  <si>
+    <t>0.0000000378</t>
+  </si>
+  <si>
+    <t>0.0000413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 </t>
+  </si>
+  <si>
+    <t>0.000000342</t>
+  </si>
+  <si>
+    <t>0.00000648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001</t>
+  </si>
+  <si>
+    <t>0.000102</t>
+  </si>
+  <si>
+    <t>0.0000425</t>
+  </si>
+  <si>
+    <t>0.000192</t>
+  </si>
+  <si>
+    <t>0.000544</t>
+  </si>
+  <si>
+    <t>0.000406</t>
+  </si>
+  <si>
+    <t>0.000556</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>Valores metabolicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En orinaFlav </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,8 +648,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,6 +759,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="22">
     <border>
@@ -797,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -868,10 +1130,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67:K67"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2399,6 +2671,11 @@
     <row r="84" spans="1:1">
       <c r="A84" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2420,285 +2697,1712 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G27"/>
+  <dimension ref="A2:AB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28">
+      <c r="B2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="C3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="J3" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="Q3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="X3" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="B4" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="C3" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB4" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="66" t="s">
+      <c r="H5" s="69"/>
+      <c r="I5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="P5" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="T5" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y5" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB5" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="73"/>
+      <c r="B6" s="68" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="66"/>
-      <c r="B6" t="s">
-        <v>101</v>
       </c>
       <c r="F6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" t="s">
+      <c r="H6" s="69"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="T6" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="V6" s="73"/>
+      <c r="W6" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y6" s="63"/>
+      <c r="AA6" s="63"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="73"/>
+      <c r="B7" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" s="69"/>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="O7" s="73"/>
+      <c r="P7" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="S7" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="V7" s="73"/>
+      <c r="W7" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z7" s="63"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="C8" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="Q8" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="B9" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="69"/>
+      <c r="O10" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="U10" s="63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="73"/>
+      <c r="B11" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="73"/>
+      <c r="B12" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="C8" s="66" t="s">
+      <c r="H12" s="69"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="C13" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="67" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="66"/>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="C13" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="J13" s="69"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="69"/>
+      <c r="Q13" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="B14" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R14" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U14" s="63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
       </c>
       <c r="F15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="66"/>
-      <c r="B16" t="s">
-        <v>101</v>
+      <c r="H15" s="69"/>
+      <c r="O15" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="S15" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="73"/>
+      <c r="B16" s="68" t="s">
+        <v>100</v>
       </c>
       <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="73"/>
+      <c r="B17" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
         <v>109</v>
       </c>
-      <c r="F16" t="s">
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="69"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="S17" s="63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="C18" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="Q18" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="B19" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="P19" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" s="67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="63" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="H20" s="69"/>
+      <c r="O20" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="S20" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="T20" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="U20" s="63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="73"/>
+      <c r="B21" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="69"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="73"/>
+      <c r="B22" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="69"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="C23" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="Q23" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="B24" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R24" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U24" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="O25" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R25" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="S25" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="T25" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="U25" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="73"/>
+      <c r="B26" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="R26" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="T26" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="73"/>
+      <c r="B27" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S27" s="63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="C31" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="J31" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="Q31" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="B32" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L32" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="70" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S32" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T32" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="H33" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="63"/>
+      <c r="O33" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R33" s="63"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="73"/>
+      <c r="B34" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="73"/>
+      <c r="I34" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="O34" s="73"/>
+      <c r="P34" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="R34" s="63"/>
+      <c r="T34" s="63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="73"/>
+      <c r="B35" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="73"/>
+      <c r="I35" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="O35" s="73"/>
+      <c r="P35" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q35" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="63"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="C37" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="J37" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="Q37" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="B38" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L38" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R38" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S38" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T38" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="H39" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="63"/>
+      <c r="O39" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R39" s="63"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="73"/>
+      <c r="B40" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="73"/>
+      <c r="I40" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="O40" s="73"/>
+      <c r="P40" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="R40" s="74"/>
+      <c r="S40" s="63" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="73"/>
+      <c r="B41" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="73"/>
+      <c r="I41" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="O41" s="73"/>
+      <c r="P41" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q41" s="63"/>
+      <c r="S41" s="63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="C43" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="J43" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="71"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
+      <c r="Q43" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="71"/>
+      <c r="S43" s="71"/>
+      <c r="T43" s="71"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="B44" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N44" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R44" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S44" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T44" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="K45" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="N45" s="63" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" s="66" t="s">
+      <c r="O45" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q45" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="R45" s="63"/>
+      <c r="T45" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="U45" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="73"/>
+      <c r="B46" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="73"/>
+      <c r="I46" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="O46" s="73"/>
+      <c r="P46" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="S46" s="63"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="73"/>
+      <c r="B47" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="73"/>
+      <c r="I47" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="K47" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="O47" s="73"/>
+      <c r="P47" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="R47" s="63"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="C49" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="J49" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="Q49" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="B50" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E50" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F50" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L50" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N50" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R50" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S50" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T50" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="F19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="66" t="s">
+      <c r="C51" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G51" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B20" t="s">
+      <c r="I51" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="M51" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="N51" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="O51" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P51" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q51" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="R51" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="T51" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="U51" s="63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="73"/>
+      <c r="B52" s="68" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="66"/>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="C23" s="66" t="s">
+      <c r="H52" s="73"/>
+      <c r="I52" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="O52" s="73"/>
+      <c r="P52" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="73"/>
+      <c r="B53" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" s="73"/>
+      <c r="I53" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="K53" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="O53" s="73"/>
+      <c r="P53" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q53" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="R53" s="63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="B24" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="H55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+      <c r="O55" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q55" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="71"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="B56" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E56" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F56" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="L56" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="M56" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="N56" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R56" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S56" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T56" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="68" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="66" t="s">
+      <c r="D57" s="63"/>
+      <c r="H57" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
+      <c r="I57" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="63"/>
+      <c r="O57" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P57" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R57" s="63"/>
+      <c r="T57" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="U57" s="63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="73"/>
+      <c r="B58" s="68" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="66"/>
-      <c r="B26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>104</v>
+      <c r="C58" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="73"/>
+      <c r="I58" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="L58" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="O58" s="73"/>
+      <c r="P58" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="63"/>
+      <c r="S58" s="63"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="73"/>
+      <c r="B59" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="63"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="J59" s="63"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q59" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="C61" s="69"/>
+      <c r="D61" s="69"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="Q61" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="71"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="P62" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="R62" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="S62" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="T62" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="U62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="69"/>
+      <c r="O63" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="R63" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="69"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="S64" s="63"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="69"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="55">
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="O63:O65"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/results/resumenOnlyMet.xlsx
+++ b/results/resumenOnlyMet.xlsx
@@ -1344,11 +1344,11 @@
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G60" activeCellId="0" sqref="G60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2011,7 +2011,7 @@
       <c r="H46" s="53"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2093,10 +2093,10 @@
       <c r="A52" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>0.029</v>
       </c>
-      <c r="I52" s="0" t="n">
+      <c r="I52" s="1" t="n">
         <v>1E-006</v>
       </c>
       <c r="J52" s="54" t="n">
@@ -2105,19 +2105,19 @@
       <c r="L52" s="54" t="n">
         <v>7.78E-009</v>
       </c>
-      <c r="M52" s="0" t="n">
+      <c r="M52" s="1" t="n">
         <v>0.042</v>
       </c>
-      <c r="N52" s="0" t="n">
+      <c r="N52" s="1" t="n">
         <v>0.000746</v>
       </c>
-      <c r="O52" s="0" t="n">
+      <c r="O52" s="1" t="n">
         <v>1.4E-005</v>
       </c>
       <c r="P52" s="54" t="n">
         <v>4.18E-011</v>
       </c>
-      <c r="Q52" s="0" t="n">
+      <c r="Q52" s="1" t="n">
         <v>0.002</v>
       </c>
     </row>
@@ -2125,22 +2125,22 @@
       <c r="A53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <v>0.026</v>
       </c>
-      <c r="I53" s="0" t="n">
+      <c r="I53" s="1" t="n">
         <v>0.029</v>
       </c>
       <c r="J53" s="54" t="n">
         <v>0.000972</v>
       </c>
-      <c r="M53" s="0" t="n">
+      <c r="M53" s="1" t="n">
         <v>0.04</v>
       </c>
-      <c r="N53" s="0" t="n">
+      <c r="N53" s="1" t="n">
         <v>0.000626</v>
       </c>
-      <c r="O53" s="0" t="n">
+      <c r="O53" s="1" t="n">
         <v>0.024</v>
       </c>
     </row>
@@ -2148,7 +2148,7 @@
       <c r="A54" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="O54" s="0" t="n">
+      <c r="O54" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="P54" s="54" t="n">
@@ -2228,7 +2228,7 @@
       <c r="B61" s="54" t="n">
         <v>0.003</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="D61" s="54" t="n">
@@ -2254,7 +2254,7 @@
       <c r="Q64" s="49"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
       <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="56" t="s">
@@ -2663,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="H5" s="62"/>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="O5" s="61" t="s">
@@ -2706,7 +2706,7 @@
       <c r="B6" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H6" s="62"/>
@@ -2735,11 +2735,11 @@
       <c r="B7" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O7" s="61"/>
@@ -2772,7 +2772,7 @@
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="J8" s="62"/>
@@ -2805,7 +2805,7 @@
       <c r="G9" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>104</v>
       </c>
       <c r="P9" s="59" t="s">
@@ -2835,7 +2835,7 @@
         <v>87</v>
       </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>105</v>
       </c>
       <c r="O10" s="61" t="s">
@@ -2870,7 +2870,7 @@
       <c r="B12" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H12" s="62"/>
@@ -2889,7 +2889,7 @@
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J13" s="62"/>
@@ -2902,7 +2902,7 @@
       <c r="R13" s="57"/>
       <c r="S13" s="57"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="0" t="s">
+      <c r="U13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2922,7 +2922,7 @@
       <c r="F14" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>112</v>
       </c>
       <c r="P14" s="59" t="s">
@@ -2951,13 +2951,13 @@
       <c r="B15" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="62"/>
@@ -2985,10 +2985,10 @@
       <c r="B16" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="62"/>
@@ -3002,13 +3002,13 @@
       <c r="B17" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>121</v>
       </c>
       <c r="H17" s="62"/>
@@ -3296,13 +3296,13 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P29" s="0" t="s">
+      <c r="P29" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       <c r="F32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="59" t="s">
@@ -3360,7 +3360,7 @@
       <c r="M32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P32" s="59" t="s">
@@ -3378,7 +3378,7 @@
       <c r="T32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="U32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="F38" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I38" s="59" t="s">
@@ -3516,7 +3516,7 @@
       <c r="M38" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="N38" s="0" t="s">
+      <c r="N38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P38" s="59" t="s">
@@ -3534,7 +3534,7 @@
       <c r="T38" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U38" s="0" t="s">
+      <c r="U38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       <c r="F44" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I44" s="59" t="s">
@@ -3663,7 +3663,7 @@
       <c r="M44" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="N44" s="0" t="s">
+      <c r="N44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P44" s="59" t="s">
@@ -3681,7 +3681,7 @@
       <c r="T44" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U44" s="0" t="s">
+      <c r="U44" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       <c r="F50" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I50" s="59" t="s">
@@ -3844,7 +3844,7 @@
       <c r="M50" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="N50" s="0" t="s">
+      <c r="N50" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P50" s="59" t="s">
@@ -3862,7 +3862,7 @@
       <c r="T50" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U50" s="0" t="s">
+      <c r="U50" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C55" s="57" t="s">
@@ -3981,7 +3981,7 @@
       <c r="D55" s="57"/>
       <c r="E55" s="57"/>
       <c r="F55" s="57"/>
-      <c r="H55" s="0" t="s">
+      <c r="H55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="J55" s="57" t="s">
@@ -3990,7 +3990,7 @@
       <c r="K55" s="57"/>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
-      <c r="O55" s="0" t="s">
+      <c r="O55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="Q55" s="57" t="s">
@@ -4016,7 +4016,7 @@
       <c r="F56" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I56" s="59" t="s">
@@ -4034,7 +4034,7 @@
       <c r="M56" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="N56" s="0" t="s">
+      <c r="N56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P56" s="59" t="s">
@@ -4052,7 +4052,7 @@
       <c r="T56" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U56" s="0" t="s">
+      <c r="U56" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4133,10 +4133,10 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="H60" s="0" t="s">
+      <c r="H60" s="1" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       <c r="T62" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="U62" s="0" t="s">
+      <c r="U62" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4288,15 +4288,15 @@
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4391,7 +4391,7 @@
       <c r="N3" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="1" t="s">
         <v>191</v>
       </c>
       <c r="P3" s="66" t="s">
@@ -4522,9 +4522,9 @@
       <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.3"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4942,7 +4942,7 @@
       <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>0.016</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
       <c r="A32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32" s="1" t="n">
         <v>0.044</v>
       </c>
     </row>

--- a/results/resumenOnlyMet.xlsx
+++ b/results/resumenOnlyMet.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Hoja1" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="onlyMet" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="todoJunto" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="comparacionesMúltiple" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="261">
   <si>
     <t xml:space="preserve">clustersResumen</t>
   </si>
@@ -325,10 +326,13 @@
     <t xml:space="preserve">pairwiseTTest</t>
   </si>
   <si>
-    <t xml:space="preserve">Interacciones positivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interacciones negativas</t>
+    <t xml:space="preserve">interacciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negativas</t>
   </si>
   <si>
     <t xml:space="preserve">Final</t>
@@ -364,15 +368,27 @@
     <t xml:space="preserve">ST/H, SA/H, SU/M, ST, SA, SU, H, M, T</t>
   </si>
   <si>
+    <t xml:space="preserve">ST/H, SA/H (++), SU/M (++), SA, SU, T, ST, H, M </t>
+  </si>
+  <si>
     <t xml:space="preserve">aumenta(+++)</t>
   </si>
   <si>
     <t xml:space="preserve">ST/H&gt;ST/M, SA/M &gt; SA/H, M&gt;&gt;&gt;H, T, ST, SA </t>
   </si>
   <si>
+    <t xml:space="preserve">M (+++), ST/H, ST/M, SA/M &gt; SA/H, H (-), ST, SA</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA/H, ST</t>
   </si>
   <si>
+    <t xml:space="preserve">ST (-)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA/H (+++)</t>
+  </si>
+  <si>
     <t xml:space="preserve">aumenta?</t>
   </si>
   <si>
@@ -382,24 +398,42 @@
     <t xml:space="preserve">ST/M, ST, SA/H &gt; SA/M, SA, SU/H, SU, H, M, T</t>
   </si>
   <si>
+    <t xml:space="preserve">T, SA/H (+), SA/M, ST/M, SU/H (-), ST, SA, SU(-), M(-), H(-)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA/H, SA, SU, H, T</t>
   </si>
   <si>
-    <t xml:space="preserve">ST/H, ST, SA/H, SU/H, SU/H, H</t>
+    <t xml:space="preserve">T, SA/H, SA, SU, H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST/H, ST, SA/H, SU/H, H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T, H, ST/H, SA/H(+), SU/H (+), H</t>
   </si>
   <si>
     <t xml:space="preserve">SA/H, SA, SU/H, SU, H, T</t>
   </si>
   <si>
+    <t xml:space="preserve">T, SA, SU, SA/H, SU/H, H(-)</t>
+  </si>
+  <si>
     <t xml:space="preserve">aumenta(++)</t>
   </si>
   <si>
     <t xml:space="preserve">SA/H&gt;SA/M, SA, SU/U, SU, H&gt;&gt; M, T</t>
   </si>
   <si>
+    <t xml:space="preserve">T, SA, SU, SU/H, SA/H (++), SA/M, H(-), M(-)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SA/H, SA, H, T</t>
   </si>
   <si>
+    <t xml:space="preserve">T, SA/H, SA(-), H(-)</t>
+  </si>
+  <si>
     <t xml:space="preserve">orina ant</t>
   </si>
   <si>
@@ -412,21 +446,42 @@
     <t xml:space="preserve">SA/M, SA/H, SA, ST/M, ST, M</t>
   </si>
   <si>
+    <t xml:space="preserve">SA, SA/H(-), SA/M, ST, M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST/M</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST, SU/M, SU</t>
   </si>
   <si>
+    <t xml:space="preserve">ST(--), SU/M(-), SU(-)</t>
+  </si>
+  <si>
     <t xml:space="preserve">aumenta mucho</t>
   </si>
   <si>
     <t xml:space="preserve">ST/H, SA/H, SU/M, ST, SA, H, T</t>
   </si>
   <si>
+    <t xml:space="preserve"> SU/M, T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA, SA/H (+), ST/H, ST(-), H</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST/H, ST, SA/H SA, H, T</t>
   </si>
   <si>
+    <t xml:space="preserve">ST/H (++), SA/H (++), ST(-), SA(-),T,H</t>
+  </si>
+  <si>
     <t xml:space="preserve">ST/M, ST, SU/M</t>
   </si>
   <si>
+    <t xml:space="preserve">ST/M (-), SU/M (-), ST</t>
+  </si>
+  <si>
     <t xml:space="preserve">cluster</t>
   </si>
   <si>
@@ -476,6 +531,282 @@
   </si>
   <si>
     <t xml:space="preserve">cluster pequeño con </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los valores metabólicos no significativos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-way</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VA.GG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conclusiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.97e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6   e-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67e-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3 e-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.9 e-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.74e-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores metabolicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7   e-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.64e-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2   e-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En orinaFlav ES tiene influencia de ST y MUJER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EG de SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HE-G de ST/H, SA/H, H, ST, SU, SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000433 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X3.4.Ácido.Dihidroxifenilacético..DHPAA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79e-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09e-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000539 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.43e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.62e-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000428 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucralosa menos para hombres?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000772 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.019 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.039</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000524 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpmin no-sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frec no sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.038</t>
   </si>
 </sst>
 </file>
@@ -549,7 +880,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,7 +902,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
     <fill>
@@ -595,7 +926,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC5E0B4"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFD0CECE"/>
       </patternFill>
     </fill>
     <fill>
@@ -619,7 +950,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFAFABAB"/>
       </patternFill>
     </fill>
     <fill>
@@ -638,6 +969,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF33CC"/>
         <bgColor rgb="FFFF00FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFABAB"/>
+        <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF767171"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFC9C9C9"/>
       </patternFill>
     </fill>
   </fills>
@@ -822,7 +1177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1067,6 +1422,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1079,7 +1438,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1116,6 +1483,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1144,16 +1543,16 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC5E0B4"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFC9C9C9"/>
+      <rgbColor rgb="FF767171"/>
       <rgbColor rgb="FF8FAADC"/>
       <rgbColor rgb="FF7030A0"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFD0CECE"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1164,7 +1563,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFD4EA6B"/>
+      <rgbColor rgb="FFC5E0B4"/>
       <rgbColor rgb="FFE8F2A1"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFF4B183"/>
@@ -1177,7 +1576,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFAFABAB"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF5EB91E"/>
       <rgbColor rgb="FF003300"/>
@@ -1198,11 +1597,11 @@
   </sheetPr>
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J90" activeCellId="0" sqref="J90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2234,10 +2633,10 @@
       <c r="J69" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="L69" s="0" t="s">
+      <c r="L69" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M69" s="0" t="s">
+      <c r="M69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N69" s="55" t="s">
@@ -2248,7 +2647,7 @@
       <c r="A70" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="H70" s="55" t="s">
@@ -2260,7 +2659,7 @@
       <c r="K70" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="N70" s="0" t="s">
+      <c r="N70" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O70" s="55" t="s">
@@ -2274,30 +2673,30 @@
       <c r="A71" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J71" s="0" t="s">
+      <c r="J71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="O71" s="0" t="s">
+      <c r="O71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="P71" s="0" t="s">
+      <c r="P71" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J72" s="0" t="s">
+      <c r="J72" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q72" s="0" t="s">
+      <c r="Q72" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2393,7 +2792,7 @@
       <c r="E77" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="0" t="s">
+      <c r="J77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M77" s="49"/>
@@ -2411,7 +2810,7 @@
       <c r="D78" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="J78" s="0" t="s">
+      <c r="J78" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2473,16 +2872,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="36.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B1" s="59" t="s">
@@ -2497,48 +2901,48 @@
       </c>
       <c r="F1" s="60"/>
       <c r="G1" s="60"/>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61" t="s">
+      <c r="K1" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="L1" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="C2" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="D2" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="F2" s="63" t="s">
         <v>107</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2547,7 +2951,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>64</v>
@@ -2555,15 +2959,18 @@
       <c r="G3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>109</v>
+      <c r="J3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
@@ -2572,16 +2979,19 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>105</v>
+      <c r="J4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>110</v>
+      <c r="A5" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>64</v>
@@ -2589,57 +2999,69 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>112</v>
+      <c r="J5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>114</v>
+      <c r="J6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="0" t="s">
-        <v>115</v>
+      <c r="J7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2654,39 +3076,45 @@
       <c r="I8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="63"/>
+      <c r="J8" s="64"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>105</v>
+      <c r="J9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>117</v>
+      <c r="A10" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="I10" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>105</v>
+      <c r="I10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,7 +3132,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2715,15 +3143,18 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="0" t="s">
-        <v>118</v>
+      <c r="J12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2734,15 +3165,18 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="0" t="s">
-        <v>119</v>
+      <c r="J13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2755,15 +3189,18 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="0" t="s">
-        <v>120</v>
+      <c r="J14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2775,20 +3212,26 @@
         <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="0" t="s">
-        <v>121</v>
+      <c r="J15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2797,21 +3240,24 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="0" t="s">
-        <v>123</v>
+      <c r="J16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2822,16 +3268,19 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="0" t="s">
-        <v>124</v>
+      <c r="J17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2840,12 +3289,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="I18" s="22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J18" s="55"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2856,22 +3305,23 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2881,14 +3331,17 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="55"/>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M20" s="62"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2897,18 +3350,15 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="I21" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="M21" s="57"/>
-      <c r="R21" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>0.1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O21" s="66"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="66"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2921,21 +3371,25 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="J22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="66"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2949,94 +3403,110 @@
       <c r="F23" s="1"/>
       <c r="G23" s="55"/>
       <c r="H23" s="55"/>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="R23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="J23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="66"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="57" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="55" t="s">
         <v>64</v>
       </c>
       <c r="G24" s="55" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H24" s="57"/>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="P24" s="49"/>
-      <c r="R24" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>0.001</v>
-      </c>
+      <c r="J24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="49"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="66"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="58"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="0" t="s">
-        <v>132</v>
-      </c>
+      <c r="J25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="55"/>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3059,7 +3529,7 @@
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -3068,7 +3538,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
@@ -3106,170 +3576,170 @@
       <c r="M2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
+      <c r="N2" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="65" t="n">
+      <c r="A3" s="68" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="65" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="65" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="L3" s="65" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>148</v>
+      <c r="B3" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="M3" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="69" t="s">
+        <v>166</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="65" t="s">
-        <v>150</v>
+        <v>167</v>
+      </c>
+      <c r="P3" s="68" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="67" t="n">
+      <c r="A4" s="70" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="68" t="n">
+      <c r="A5" s="71" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="A6" s="72" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="70" t="n">
+      <c r="A7" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="71" t="n">
+      <c r="A8" s="74" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="n">
+      <c r="A9" s="75" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3293,9 +3763,9 @@
       <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.3"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3590,7 +4060,7 @@
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
-      <c r="E22" s="73" t="n">
+      <c r="E22" s="76" t="n">
         <v>0.005</v>
       </c>
       <c r="F22" s="42"/>
@@ -3610,7 +4080,7 @@
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
-      <c r="E23" s="73" t="n">
+      <c r="E23" s="76" t="n">
         <v>0.026</v>
       </c>
       <c r="F23" s="42"/>
@@ -3627,13 +4097,13 @@
       <c r="A24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="73" t="n">
+      <c r="B24" s="76" t="n">
         <v>0.014</v>
       </c>
       <c r="C24" s="42" t="n">
         <v>0.02</v>
       </c>
-      <c r="D24" s="73" t="n">
+      <c r="D24" s="76" t="n">
         <v>0.019</v>
       </c>
       <c r="E24" s="42"/>
@@ -3744,4 +4214,1839 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB66"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="J3" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="Q3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="X3" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U4" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y4" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA4" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB4" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="S5" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="U5" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB5" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="81"/>
+      <c r="B6" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="82"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q6" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="V6" s="81"/>
+      <c r="W6" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y6" s="55"/>
+      <c r="AA6" s="55"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="81"/>
+      <c r="B7" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="81"/>
+      <c r="P7" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="S7" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="V7" s="81"/>
+      <c r="W7" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z7" s="55"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="I8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="Q8" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T9" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U9" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="82"/>
+      <c r="I10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="T10" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="U10" s="55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="81"/>
+      <c r="B11" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="82"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11" s="77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="81"/>
+      <c r="B12" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="X12" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="Q13" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+      <c r="T13" s="78"/>
+      <c r="U13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="X13" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y13" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z13" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB13" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="P14" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q14" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S14" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U14" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="V14" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="82"/>
+      <c r="O15" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="R15" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="T15" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="V15" s="81"/>
+      <c r="W15" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y15" s="55"/>
+      <c r="AA15" s="55"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="81"/>
+      <c r="B16" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="82"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" s="81"/>
+      <c r="W16" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z16" s="55"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="81"/>
+      <c r="B17" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q17" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="S17" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="Q18" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="X18" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="49"/>
+      <c r="P19" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="84" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="84" t="s">
+        <v>106</v>
+      </c>
+      <c r="S19" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="T19" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="U19" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="X19" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y19" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z19" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA19" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB19" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="H20" s="82"/>
+      <c r="O20" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="T20" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="U20" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="V20" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="W20" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="81"/>
+      <c r="B21" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="82"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="55"/>
+      <c r="AA21" s="55"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="81"/>
+      <c r="B22" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="H22" s="82"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="V22" s="81"/>
+      <c r="W22" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z22" s="55"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="Q23" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="78"/>
+      <c r="S23" s="78"/>
+      <c r="T23" s="78"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q24" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R24" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S24" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T24" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U24" s="80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H25" s="82"/>
+      <c r="O25" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R25" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="S25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="U25" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="81"/>
+      <c r="B26" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="82"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="R26" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="T26" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="81"/>
+      <c r="B27" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H27" s="82"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="S27" s="55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="J31" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="Q31" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T32" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" s="55"/>
+      <c r="O33" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R33" s="55"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="81"/>
+      <c r="B34" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="81"/>
+      <c r="I34" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="O34" s="81"/>
+      <c r="P34" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="55"/>
+      <c r="T34" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="81"/>
+      <c r="B35" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="81"/>
+      <c r="I35" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="81"/>
+      <c r="P35" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q35" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="R35" s="55"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="78"/>
+      <c r="J37" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="78"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="Q37" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R37" s="78"/>
+      <c r="S37" s="78"/>
+      <c r="T37" s="78"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M38" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P38" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S38" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T38" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="55"/>
+      <c r="H39" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" s="55"/>
+      <c r="O39" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P39" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R39" s="55"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="81"/>
+      <c r="B40" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="81"/>
+      <c r="I40" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="K40" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="O40" s="81"/>
+      <c r="P40" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="R40" s="64"/>
+      <c r="S40" s="55" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="81"/>
+      <c r="B41" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="81"/>
+      <c r="I41" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="O41" s="81"/>
+      <c r="P41" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q41" s="55"/>
+      <c r="S41" s="55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="J43" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="Q43" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K44" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L44" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M44" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P44" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S44" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T44" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="H45" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="K45" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="M45" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="N45" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="O45" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q45" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="R45" s="55"/>
+      <c r="T45" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="U45" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="81"/>
+      <c r="B46" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="O46" s="81"/>
+      <c r="P46" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="S46" s="55"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="81"/>
+      <c r="B47" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="O47" s="81"/>
+      <c r="P47" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q47" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="R47" s="55"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="J49" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="Q49" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="78"/>
+      <c r="S49" s="78"/>
+      <c r="T49" s="78"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K50" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R50" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S50" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T50" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J51" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="M51" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="N51" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="O51" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P51" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q51" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="R51" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="T51" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="U51" s="55" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="81"/>
+      <c r="B52" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="81"/>
+      <c r="I52" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="O52" s="81"/>
+      <c r="P52" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q52" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="81"/>
+      <c r="B53" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="81"/>
+      <c r="I53" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J53" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="K53" s="55" t="s">
+        <v>253</v>
+      </c>
+      <c r="O53" s="81"/>
+      <c r="P53" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q53" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="R53" s="55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="78"/>
+      <c r="H55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J55" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
+      <c r="M55" s="78"/>
+      <c r="O55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q55" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55" s="78"/>
+      <c r="S55" s="78"/>
+      <c r="T55" s="78"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="J56" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="K56" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="L56" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="M56" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P56" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R56" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S56" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T56" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="55"/>
+      <c r="H57" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="K57" s="55"/>
+      <c r="O57" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P57" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R57" s="55"/>
+      <c r="T57" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="U57" s="55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="81"/>
+      <c r="B58" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="81"/>
+      <c r="I58" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="J58" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="L58" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="O58" s="81"/>
+      <c r="P58" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q58" s="55"/>
+      <c r="S58" s="55"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="81"/>
+      <c r="B59" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="J59" s="55"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59" s="55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="Q61" s="78" t="s">
+        <v>14</v>
+      </c>
+      <c r="R61" s="78"/>
+      <c r="S61" s="78"/>
+      <c r="T61" s="78"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P62" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="R62" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="S62" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="T62" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="82"/>
+      <c r="O63" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="P63" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="R63" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="82"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="80" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="S64" s="55"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="82"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="O5:O7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="O15:O17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="X18:AA18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="O20:O22"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="O33:O35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="Q37:T37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="O39:O41"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="O45:O47"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="O51:O53"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="J55:M55"/>
+    <mergeCell ref="Q55:T55"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="O57:O59"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="O63:O65"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>